--- a/artfynd/A 2237-2022.xlsx
+++ b/artfynd/A 2237-2022.xlsx
@@ -1706,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>103880785</v>
+        <v>103881109</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>78603</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,25 +1718,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>504567.7903190443</v>
+        <v>504591.2892140442</v>
       </c>
       <c r="R11" t="n">
-        <v>7032817.276731723</v>
+        <v>7033003.144744636</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103881109</v>
+        <v>103880785</v>
       </c>
       <c r="B12" t="n">
-        <v>78603</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1831,25 +1831,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>504591.2892140442</v>
+        <v>504567.7903190443</v>
       </c>
       <c r="R12" t="n">
-        <v>7033003.144744636</v>
+        <v>7032817.276731723</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>

--- a/artfynd/A 2237-2022.xlsx
+++ b/artfynd/A 2237-2022.xlsx
@@ -1706,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>103881109</v>
+        <v>103880785</v>
       </c>
       <c r="B11" t="n">
-        <v>78603</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,25 +1718,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>504591.2892140442</v>
+        <v>504567.7903190443</v>
       </c>
       <c r="R11" t="n">
-        <v>7033003.144744636</v>
+        <v>7032817.276731723</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103880785</v>
+        <v>103881109</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>78603</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1831,25 +1831,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>504567.7903190443</v>
+        <v>504591.2892140442</v>
       </c>
       <c r="R12" t="n">
-        <v>7032817.276731723</v>
+        <v>7033003.144744636</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
